--- a/biology/Médecine/André_Gernez/André_Gernez.xlsx
+++ b/biology/Médecine/André_Gernez/André_Gernez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Gernez</t>
+          <t>André_Gernez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 André Gernez, né le 25 janvier 1923 à Avesnes-les-Aubert et mort le 8 janvier 2014 à Roubaix, est un charlatan et physiopathologiste adepte des pseudo-médecines.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Gernez</t>
+          <t>André_Gernez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">André Gernez est le fils de Germain Gernez et de Françoise Marie Thérèse Couveny.
-Bachelier à quatorze ans par dérogation spéciale ministérielle, André Gernez est volontaire à l'engagement au service militaire dans le contexte naissant de la Seconde Guerre mondiale. En 1944, il devient médecin militaire ; il est alors le plus jeune médecin de France à l'âge de 21 ans[1].
-Après la guerre, il s'installe à Paris et devient assistant à l'Institut Curie. Il est ensuite détaché par l'institut à Oxford, Stockholm et New York[1]. 
-De retour en France, il ouvre un cabinet de radiologie-radiothérapie à Roubaix, tout en étant chef de service à l’hôpital municipal[1].
+Bachelier à quatorze ans par dérogation spéciale ministérielle, André Gernez est volontaire à l'engagement au service militaire dans le contexte naissant de la Seconde Guerre mondiale. En 1944, il devient médecin militaire ; il est alors le plus jeune médecin de France à l'âge de 21 ans.
+Après la guerre, il s'installe à Paris et devient assistant à l'Institut Curie. Il est ensuite détaché par l'institut à Oxford, Stockholm et New York. 
+De retour en France, il ouvre un cabinet de radiologie-radiothérapie à Roubaix, tout en étant chef de service à l’hôpital municipal.
 Ses travaux sur le syndrome de Plummer-Vinson et les cellules souches lui apporte une notoriété dans le monde scientifiques mais, dès de années 1970, il glisse peu à peu vers des théories plus ou moins farfelues.
 André Gernez meurt à 90 ans, le 8 janvier 2014.
 </t>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Gernez</t>
+          <t>André_Gernez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,11 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'ultra-lumière
-Toujours dans les années 1970, il affirme qu'il est possible dépasser la vitesse de la lumière. Il aurait, en 2004, soumit à l'Académie des Sciences un article dénonçant les erreurs d'Einstein et proposant un modèle basé sur une ultra-lumière, de la même manière qu'il a le son et les ultra-sons. Jean-Yves Bilien, promoteur de pseudosciences, aborde le thème dans son documentaire Docteur André Gernez. Le Scandale du siècle[2].
-Traitement du cancer
-Sa « théorie des cellules souches » et ses « protocoles de prévention » dans le traitement du cancer sont cités dans une étude de Maurice Israël et de l'oncologue controversé Laurent Schwartz[3]. Il préconise alors d'alterner le jeûne avec une alimentation à base de fruits et, une fois par an, de faire une cure à base de colchicine[3].
-Pour Olivier Jallut, spécialiste en oncologie, les traitements préventifs préconisés par Gernez sont trop risqués et ne sont pas acceptables ; quant aux traitements curatifs ils n'ont « aucune légitimité scientifique »[4]. Il s'associe aux alertes déjà lancées par Vigeral en 1988, qui décrivait les travaux de Gernez : « aucune base scientifique, étude aléatoire non coordonnée, méthodes d'évaluation déficiente, etc. »[5] et déconseille cette méthode jugée « inefficace et potentiellement dangereuse ».
+          <t>L'ultra-lumière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toujours dans les années 1970, il affirme qu'il est possible dépasser la vitesse de la lumière. Il aurait, en 2004, soumit à l'Académie des Sciences un article dénonçant les erreurs d'Einstein et proposant un modèle basé sur une ultra-lumière, de la même manière qu'il a le son et les ultra-sons. Jean-Yves Bilien, promoteur de pseudosciences, aborde le thème dans son documentaire Docteur André Gernez. Le Scandale du siècle.
 </t>
         </is>
       </c>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Gernez</t>
+          <t>André_Gernez</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,13 +597,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Récompenses</t>
+          <t>Théories personnelles</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1979 : Prix « Hans Adalbert Schweigart » de la branche autrichienne de l'Union mondiale pour la protection de la vie, une organisation controversée fondée en 1958 et dissoute en 2012[6][source insuffisante].
-2012 : Médaille d'or de l'association Société d'encouragement au progrès[7].</t>
+          <t>Traitement du cancer</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa « théorie des cellules souches » et ses « protocoles de prévention » dans le traitement du cancer sont cités dans une étude de Maurice Israël et de l'oncologue controversé Laurent Schwartz. Il préconise alors d'alterner le jeûne avec une alimentation à base de fruits et, une fois par an, de faire une cure à base de colchicine.
+Pour Olivier Jallut, spécialiste en oncologie, les traitements préventifs préconisés par Gernez sont trop risqués et ne sont pas acceptables ; quant aux traitements curatifs ils n'ont « aucune légitimité scientifique ». Il s'associe aux alertes déjà lancées par Vigeral en 1988, qui décrivait les travaux de Gernez : « aucune base scientifique, étude aléatoire non coordonnée, méthodes d'évaluation déficiente, etc. » et déconseille cette méthode jugée « inefficace et potentiellement dangereuse ».
+</t>
         </is>
       </c>
     </row>
@@ -597,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Gernez</t>
+          <t>André_Gernez</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,10 +635,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1979 : Prix « Hans Adalbert Schweigart » de la branche autrichienne de l'Union mondiale pour la protection de la vie, une organisation controversée fondée en 1958 et dissoute en 2012[source insuffisante].
+2012 : Médaille d'or de l'association Société d'encouragement au progrès.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>André_Gernez</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Gernez</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La carcinogénèse : mécanisme et prévention : essai sur la dynamique des populations cellulaires, 1969 ?, 181 p. (OCLC 14883266)
 Néo-postulats biologiques et pathogéniques, impr. J. Verschave, 1re édition 1968, 122 p.
